--- a/sf-house-excel/src/test/resources/ExcelSession.xlsx
+++ b/sf-house-excel/src/test/resources/ExcelSession.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nijianfeng/projects/sf-code/sf-excel/src/test/java/cn/sf/excel/common/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4CCCBF0-8CA2-4864-A204-858E44794242}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="520" windowWidth="25600" windowHeight="14200"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28725" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
@@ -128,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,22 +467,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">

--- a/sf-house-excel/src/test/resources/ExcelSession.xlsx
+++ b/sf-house-excel/src/test/resources/ExcelSession.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4CCCBF0-8CA2-4864-A204-858E44794242}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3918BC94-145D-4800-A75A-E2A4399C1196}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28725" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>1213524635746857</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2152365476</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,7 +467,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,10 +495,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -519,10 +515,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -539,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -552,11 +548,8 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sf-house-excel/src/test/resources/ExcelSession.xlsx
+++ b/sf-house-excel/src/test/resources/ExcelSession.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3918BC94-145D-4800-A75A-E2A4399C1196}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27FD61D-6580-47E3-A74C-1C30455DDFC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28725" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28725" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
+    <sheet name="测试3-1" sheetId="2" r:id="rId2"/>
+    <sheet name="测试4-1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +116,13 @@
   </si>
   <si>
     <t>2012-12-11 23:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试4-1</t>
+  </si>
+  <si>
+    <t>测试3-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -557,4 +566,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C551A4A-0CC1-45C0-9ACA-6A44E4D0001E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B794F871-79D7-4B2B-A86A-22821E434FFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>